--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C96408-4496-4F0C-AFBE-7C471B67CB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7D952-F820-4401-954F-E56F10B929D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B7B37C6-A546-4C3B-BB89-60D3DA2A0238}"/>
   </bookViews>
@@ -2819,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D694D-C156-456F-BB7E-21324ECFAC13}">
   <dimension ref="C4:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:H9"/>
     </sheetView>
   </sheetViews>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7D952-F820-4401-954F-E56F10B929D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BECE82F-1B65-4B40-947C-B527DF13197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B7B37C6-A546-4C3B-BB89-60D3DA2A0238}"/>
   </bookViews>
@@ -388,7 +388,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.91228070175438591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,6 +582,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Periodo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -956,7 +1011,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.94736842105263153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,6 +1205,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Periodo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2819,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D694D-C156-456F-BB7E-21324ECFAC13}">
   <dimension ref="C4:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2892,7 +3002,7 @@
       </c>
       <c r="D8" s="7">
         <f>G8/H8</f>
-        <v>1</v>
+        <v>0.91228070175438591</v>
       </c>
       <c r="E8" s="7">
         <v>0.8</v>
@@ -2901,10 +3011,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="H8" s="8">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -2983,7 +3093,7 @@
       </c>
       <c r="D50" s="7">
         <f>G50/H50</f>
-        <v>1</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="E50" s="7">
         <v>0.8</v>
@@ -2992,10 +3102,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="8">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="H50" s="8">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BECE82F-1B65-4B40-947C-B527DF13197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE18A77C-4683-4195-ADCC-BDE60D9CB290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B7B37C6-A546-4C3B-BB89-60D3DA2A0238}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Periodo</t>
   </si>
@@ -53,9 +53,6 @@
     <t>PD</t>
   </si>
   <si>
-    <t>VC</t>
-  </si>
-  <si>
     <t>Percentuale Requisiti soddisfatti</t>
   </si>
   <si>
@@ -72,6 +69,24 @@
   </si>
   <si>
     <t>PROS</t>
+  </si>
+  <si>
+    <t>Incremento 5</t>
+  </si>
+  <si>
+    <t>Incremento 6</t>
+  </si>
+  <si>
+    <t>Incremento 7</t>
+  </si>
+  <si>
+    <t>Incremento 8</t>
+  </si>
+  <si>
+    <t>Incremento 9</t>
+  </si>
+  <si>
+    <t>Incremento 10</t>
   </si>
 </sst>
 </file>
@@ -133,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,6 +171,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -170,8 +196,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -363,32 +389,59 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$6:$C$9</c:f>
+              <c:f>Foglio1!$C$8:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PA</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Incremento 7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incremento 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$6:$D$9</c:f>
+              <c:f>Foglio1!$D$8:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91228070175438591</c:v>
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,30 +495,39 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$6:$C$9</c:f>
+              <c:f>Foglio1!$C$8:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PA</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Incremento 7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incremento 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$6:$E$9</c:f>
+              <c:f>Foglio1!$E$8:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -476,6 +538,15 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -516,30 +587,39 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$6:$C$9</c:f>
+              <c:f>Foglio1!$C$8:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PA</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Incremento 7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incremento 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$6:$F$9</c:f>
+              <c:f>Foglio1!$F$8:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -550,6 +630,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -986,32 +1075,59 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$48:$C$51</c:f>
+              <c:f>Foglio1!$C$50:$C$56</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PA</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Incremento 7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incremento 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$48:$D$51</c:f>
+              <c:f>Foglio1!$D$50:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94736842105263153</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,30 +1181,39 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$48:$C$51</c:f>
+              <c:f>Foglio1!$C$50:$C$56</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PA</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Incremento 7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incremento 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$48:$E$51</c:f>
+              <c:f>Foglio1!$E$50:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -1099,6 +1224,15 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1139,30 +1273,39 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$48:$C$51</c:f>
+              <c:f>Foglio1!$C$50:$C$56</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PA</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Incremento 7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incremento 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$48:$F$51</c:f>
+              <c:f>Foglio1!$F$50:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1173,6 +1316,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2929,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D694D-C156-456F-BB7E-21324ECFAC13}">
   <dimension ref="C4:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2942,7 +3094,7 @@
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2953,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>1</v>
@@ -2962,10 +3114,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -2998,11 +3150,11 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
         <f>G8/H8</f>
-        <v>0.91228070175438591</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="7">
         <v>0.8</v>
@@ -3011,29 +3163,141 @@
         <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="H8" s="8">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" ref="D9:D14" si="0">G9/H9</f>
+        <v>0.44</v>
+      </c>
       <c r="E9" s="7">
         <v>0.8</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="8">
+        <v>44</v>
+      </c>
+      <c r="H9" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>55</v>
+      </c>
+      <c r="H10" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>82</v>
+      </c>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>82</v>
+      </c>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>90</v>
+      </c>
+      <c r="H13" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>90</v>
+      </c>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -3044,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>1</v>
@@ -3053,10 +3317,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
@@ -3089,11 +3353,11 @@
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C50" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D50" s="7">
         <f>G50/H50</f>
-        <v>0.94736842105263153</v>
+        <v>0.4</v>
       </c>
       <c r="E50" s="7">
         <v>0.8</v>
@@ -3102,28 +3366,140 @@
         <v>1</v>
       </c>
       <c r="G50" s="8">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="H50" s="8">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" ref="D51:D56" si="1">G51/H51</f>
+        <v>0.44</v>
+      </c>
       <c r="E51" s="7">
         <v>0.8</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="G51" s="8">
+        <v>44</v>
+      </c>
+      <c r="H51" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="8">
+        <v>60</v>
+      </c>
+      <c r="H52" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="1"/>
+        <v>0.87</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="8">
+        <v>87</v>
+      </c>
+      <c r="H53" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="1"/>
+        <v>0.87</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8">
+        <v>87</v>
+      </c>
+      <c r="H54" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+      <c r="G55" s="8">
+        <v>95</v>
+      </c>
+      <c r="H55" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="8">
+        <v>95</v>
+      </c>
+      <c r="H56" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H73" s="10"/>
+      <c r="H73" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE18A77C-4683-4195-ADCC-BDE60D9CB290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751F8651-F0C3-454F-B1BE-E486B6C4DCD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B7B37C6-A546-4C3B-BB89-60D3DA2A0238}"/>
   </bookViews>
@@ -389,9 +389,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$8:$C$14</c:f>
+              <c:f>Foglio1!$C$8:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -409,19 +409,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$8:$D$14</c:f>
+              <c:f>Foglio1!$D$8:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -438,9 +435,6 @@
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -495,9 +489,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$8:$C$14</c:f>
+              <c:f>Foglio1!$C$8:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -515,19 +509,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$8:$E$14</c:f>
+              <c:f>Foglio1!$E$8:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -544,9 +535,6 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -587,9 +575,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$8:$C$14</c:f>
+              <c:f>Foglio1!$C$8:$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -607,19 +595,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$8:$F$14</c:f>
+              <c:f>Foglio1!$F$8:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -636,9 +621,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1075,9 +1057,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$50:$C$56</c:f>
+              <c:f>Foglio1!$C$50:$C$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1095,19 +1077,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$50:$D$56</c:f>
+              <c:f>Foglio1!$D$50:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -1124,9 +1103,6 @@
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -1181,9 +1157,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$50:$C$56</c:f>
+              <c:f>Foglio1!$C$50:$C$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1201,19 +1177,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$50:$E$56</c:f>
+              <c:f>Foglio1!$E$50:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -1230,9 +1203,6 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1273,9 +1243,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$50:$C$56</c:f>
+              <c:f>Foglio1!$C$50:$C$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1293,19 +1263,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$50:$F$56</c:f>
+              <c:f>Foglio1!$F$50:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1322,9 +1289,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751F8651-F0C3-454F-B1BE-E486B6C4DCD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F714E85-490B-4D12-90CD-938CE52CC98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B7B37C6-A546-4C3B-BB89-60D3DA2A0238}"/>
   </bookViews>
@@ -3045,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D694D-C156-456F-BB7E-21324ECFAC13}">
   <dimension ref="C4:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F714E85-490B-4D12-90CD-938CE52CC98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509E32D1-6774-4AEE-9A9D-3238755FF635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B7B37C6-A546-4C3B-BB89-60D3DA2A0238}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Periodo</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>PA</t>
-  </si>
-  <si>
-    <t>PD</t>
   </si>
   <si>
     <t>Percentuale Requisiti soddisfatti</t>
@@ -88,6 +85,15 @@
   <si>
     <t>Incremento 10</t>
   </si>
+  <si>
+    <t>Incremento 11</t>
+  </si>
+  <si>
+    <t>Incremento 12</t>
+  </si>
+  <si>
+    <t>Incremento 13</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +103,7 @@
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +123,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,9 +401,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$8:$C$13</c:f>
+              <c:f>Foglio1!$C$8:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -409,16 +421,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$8:$D$13</c:f>
+              <c:f>Foglio1!$D$8:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -435,6 +456,15 @@
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -489,9 +519,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$8:$C$13</c:f>
+              <c:f>Foglio1!$C$8:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -509,16 +539,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$8:$E$13</c:f>
+              <c:f>Foglio1!$E$8:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -535,6 +574,15 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -575,9 +623,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$8:$C$13</c:f>
+              <c:f>Foglio1!$C$8:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -595,16 +643,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$8:$F$13</c:f>
+              <c:f>Foglio1!$F$8:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -621,6 +678,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1057,9 +1123,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$50:$C$55</c:f>
+              <c:f>Foglio1!$C$50:$C$58</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1077,16 +1143,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$50:$D$55</c:f>
+              <c:f>Foglio1!$D$50:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -1103,6 +1178,15 @@
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -1157,9 +1241,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$50:$C$55</c:f>
+              <c:f>Foglio1!$C$50:$C$58</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1177,16 +1261,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$50:$E$55</c:f>
+              <c:f>Foglio1!$E$50:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -1203,6 +1296,15 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1243,9 +1345,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$C$50:$C$55</c:f>
+              <c:f>Foglio1!$C$50:$C$58</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -1263,16 +1365,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$F$50:$F$55</c:f>
+              <c:f>Foglio1!$F$50:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1289,6 +1400,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2669,16 +2789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>968040</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:colOff>739440</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2707,16 +2827,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593834</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>110359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>968040</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:colOff>952274</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>83388</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3045,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D694D-C156-456F-BB7E-21324ECFAC13}">
   <dimension ref="C4:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3058,7 +3178,7 @@
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3069,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>1</v>
@@ -3078,10 +3198,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -3114,7 +3234,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
         <f>G8/H8</f>
@@ -3135,7 +3255,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" ref="D9:D14" si="0">G9/H9</f>
@@ -3156,7 +3276,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
@@ -3177,7 +3297,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
@@ -3198,7 +3318,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
@@ -3219,7 +3339,7 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
@@ -3240,10 +3360,10 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D14:D16" si="1">G14/H14</f>
         <v>0.9</v>
       </c>
       <c r="E14" s="7">
@@ -3256,12 +3376,54 @@
         <v>90</v>
       </c>
       <c r="H14" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>90</v>
+      </c>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>90</v>
+      </c>
+      <c r="H16" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -3272,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>1</v>
@@ -3281,10 +3443,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
@@ -3317,7 +3479,7 @@
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C50" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="7">
         <f>G50/H50</f>
@@ -3338,10 +3500,10 @@
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C51" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" ref="D51:D56" si="1">G51/H51</f>
+        <f t="shared" ref="D51:D56" si="2">G51/H51</f>
         <v>0.44</v>
       </c>
       <c r="E51" s="7">
@@ -3359,10 +3521,10 @@
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C52" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="E52" s="7">
@@ -3380,10 +3542,10 @@
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C53" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87</v>
       </c>
       <c r="E53" s="7">
@@ -3401,10 +3563,10 @@
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C54" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87</v>
       </c>
       <c r="E54" s="7">
@@ -3422,10 +3584,10 @@
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C55" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
       <c r="E55" s="7">
@@ -3443,10 +3605,10 @@
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C56" s="10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D56:D58" si="3">G56/H56</f>
         <v>0.95</v>
       </c>
       <c r="E56" s="7">
@@ -3459,6 +3621,48 @@
         <v>95</v>
       </c>
       <c r="H56" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>95</v>
+      </c>
+      <c r="H57" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="8">
+        <v>95</v>
+      </c>
+      <c r="H58" s="8">
         <v>100</v>
       </c>
     </row>
@@ -3466,6 +3670,7 @@
       <c r="H73" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509E32D1-6774-4AEE-9A9D-3238755FF635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA008F-9883-4F0F-BA2C-32ADA97D6886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B7B37C6-A546-4C3B-BB89-60D3DA2A0238}"/>
   </bookViews>
@@ -459,13 +459,13 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,13 +1181,13 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D694D-C156-456F-BB7E-21324ECFAC13}">
   <dimension ref="C4:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3258,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="D9:D14" si="0">G9/H9</f>
+        <f t="shared" ref="D9:D13" si="0">G9/H9</f>
         <v>0.44</v>
       </c>
       <c r="E9" s="7">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="D14" s="7">
         <f t="shared" ref="D14:D16" si="1">G14/H14</f>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E14" s="7">
         <v>0.8</v>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H14" s="8">
         <v>100</v>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7">
         <v>0.8</v>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H15" s="8">
         <v>100</v>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
         <v>0.8</v>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H16" s="8">
         <v>100</v>
@@ -3503,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" ref="D51:D56" si="2">G51/H51</f>
+        <f t="shared" ref="D51:D55" si="2">G51/H51</f>
         <v>0.44</v>
       </c>
       <c r="E51" s="7">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="D56" s="7">
         <f t="shared" ref="D56:D58" si="3">G56/H56</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E56" s="7">
         <v>0.8</v>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H56" s="8">
         <v>100</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="D57" s="7">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E57" s="7">
         <v>0.8</v>
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H57" s="8">
         <v>100</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D58" s="7">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E58" s="7">
         <v>0.8</v>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H58" s="8">
         <v>100</v>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiPrimari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA008F-9883-4F0F-BA2C-32ADA97D6886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10ADC3C-5A69-4D66-AE64-36EC7FB728C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B7B37C6-A546-4C3B-BB89-60D3DA2A0238}"/>
   </bookViews>
@@ -3165,7 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410D694D-C156-456F-BB7E-21324ECFAC13}">
   <dimension ref="C4:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
